--- a/data/exports/profiles.xlsx
+++ b/data/exports/profiles.xlsx
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6 (100.0%)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4 (66.7%)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6 (100.0%)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5 (83.3%)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,19 @@
     <col width="25" customWidth="1" min="15" max="15"/>
     <col width="25" customWidth="1" min="16" max="16"/>
     <col width="25" customWidth="1" min="17" max="17"/>
+    <col width="25" customWidth="1" min="18" max="18"/>
+    <col width="25" customWidth="1" min="19" max="19"/>
+    <col width="25" customWidth="1" min="20" max="20"/>
+    <col width="25" customWidth="1" min="21" max="21"/>
+    <col width="25" customWidth="1" min="22" max="22"/>
+    <col width="25" customWidth="1" min="23" max="23"/>
+    <col width="25" customWidth="1" min="24" max="24"/>
+    <col width="25" customWidth="1" min="25" max="25"/>
+    <col width="25" customWidth="1" min="26" max="26"/>
+    <col width="25" customWidth="1" min="27" max="27"/>
+    <col width="25" customWidth="1" min="28" max="28"/>
+    <col width="25" customWidth="1" min="29" max="29"/>
+    <col width="25" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -584,80 +597,145 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>certifications</t>
+          <t>contact_birthday</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>contact_emails</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>contact_facebook</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>contact_github_urls</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>contact_instagram</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>contact_linkedin_url</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>contact_linkedin_urls</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>contact_phones</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>contact_skype</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>contact_telegram</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>contact_twitter</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>contact_twitter_url</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>contact_websites</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>contact_whatsapp</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>contact_youtube</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
           <t>education_schools</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>experience_titles</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>extraction_method</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>headline</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>languages</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>profile_url</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>scraped_at</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>skills</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>total_certifications</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>total_education_entries</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>total_experience_entries</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>total_languages</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>total_skills</t>
         </is>
@@ -666,354 +744,140 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Hello, I am Masud. I'm deeply passionate about the intersection of robotics and artificial intelligence. My hands-on experience includes leading the Software and Autonomous Team to global rankings, achieving 13th and 9th place (Champions in Asia) in the University Rover Challenge in 2022 and 2023 in the USA , along with a 3rd place finish in the Anatolian Rover Challenge 2023 in Türkiye. In addition to my practical achievements, I have worked with ROS and Jetson devices and I have a research bac</t>
+          <t>While studying for my Bachelor's in Software Engineering at Daffodil International University, I took an elective in machine learning and was instantly hooked. It was like I'd found a missing puzzle piece that brought all my interests together - math, statistics, programming and problem-solving. My first job was a Data Scientist under a professor of my university, where I was the youngest team member. But don't let that fool you - within my first year, I was leading a project. Numbers don't lie.</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>edX Verified Certificate for Python Basics for Data Science | edX Verified Certificate for Python Basics for Data Science</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>United International University | United International University</t>
+          <t>salimsadman615@gmail.com</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>In addition to my practical achievements, I have worked with ROS and Jetson devices and I have a research background in Meta-Learning, Deep Learning, and Computer Vision. I'm currently seeking a PhD position in robotics. | … more | Activity</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/salim-sadman-362084301</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/salim-sadman-362084301</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>gmail</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>gmail.com</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Daffodil International University | Daffodil International University</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Machine Learning Researcher | Daffodil International University-DIU · Internship | Jan 2024 - Present · 1 yr 11 mos</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
           <t>javascript-text-based</t>
         </is>
       </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="inlineStr"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Skip to main content</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/aamasud040</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2025-11-19T18:29:47.065236</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Undergraduate Teaching Assistant, United International University · Part-time, Jan - Jun · yr mos, Dhaka, Bangladesh</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="n">
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Data Science | Machine Learning | Deep Learning | Data Analyst</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr"/>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Dhaka, Dhaka, Bangladesh</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Salim Sadman</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/salim-sadman-362084301</t>
+        </is>
+      </c>
+      <c r="Y2" s="3" t="inlineStr">
+        <is>
+          <t>2025-11-27T15:40:22.804898</t>
+        </is>
+      </c>
+      <c r="Z2" s="3" t="inlineStr">
+        <is>
+          <t>… more, Activity, Salim Sadman commented on a post, mo, Its very helpful Vai, Congrats Md Raihan!, Wishing you the best, Show all</t>
+        </is>
+      </c>
+      <c r="AA2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="P2" s="3" t="n">
+      <c r="AB2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>I am passionate about developing my career in artificial intelligence. I have gained skills, and experience in Deep Learning, Computer Vision, and Natural Language Processing. To put it into practice, I am eager to employ my skills in related projects and research work. If you want to count me as a collaborator in your projects or research in the above-mentioned domains, please feel free to contact me. I have been working with several AI projects for 2 years. These projects span image classifica</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Machine Learning | Machine Learning</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Read more: | Read more:</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>javascript-text-based</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Skip to main content</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/khalequzzaman-likhon</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>2025-11-19T18:33:48.045577</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr"/>
-      <c r="M3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" s="3" t="inlineStr"/>
-      <c r="P3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>While studying for my Bachelor's in Software Engineering at Daffodil International University, I took an elective in machine learning and was instantly hooked. It was like I'd found a missing puzzle piece that brought all my interests together - math, statistics, programming and problem-solving. My first job was a Data Scientist under a professor of my university, where I was the youngest team member. But don't let that fool you - within my first year, I was leading a project. Numbers don't lie.</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Daffodil International University | Daffodil International University</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Machine Learning Researcher | Daffodil International University-DIU · Internship | Jan 2024 - Present · 1 yr 11 mos</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>javascript-text-based</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="inlineStr"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>Skip to main content</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/salim-sadman-362084301</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>2025-11-19T18:38:23.565290</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>… more, Activity, Salim Sadman commented on a post, mo, Its very helpful Vai, Congrats Md Raihan!, Wishing you the best, Show all</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="inlineStr"/>
-      <c r="N4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I’m a final-year Electronics and Communication Engineering student at KUET with a growing passion for AI, Deep Learning, and Computer Vision. I’m especially interested in how GenAI and machine learning can be applied to solve real-world problems in practical and impactful ways. Currently, I’m working on my undergraduate thesis focused on rice disease detection using lightweight YOLO-based CNN models. Through this, I’m learning about model design, feature extraction, and performance optimization </t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Khulna University of Engineering and Technology | Khulna University of Engineering and Technology</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>javascript-text-based</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>Chapters</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>Skip to main content</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/asifmridul</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>2025-11-19T18:57:58.743421</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>… more, Python (Programming Language) • Machine Learning • Deep Learning, Activity, Posts, Comments, Images, Asifur Rahman Mridul, • rd+, AI Enthusiast | Deep Learning • Computer Vision | ECE • KUET, d • Edited •</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr"/>
-      <c r="N5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" s="3" t="inlineStr"/>
-      <c r="P5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I am a dedicated software engineer with a BSc in Computer Science and Engineering from North South University. My expertise lies in developing scalable, efficient, and innovative solutions to complex problems. I thrive in dynamic environments, continually expanding my skills in various programming languages, frameworks, and technologies. Passionate about continuous learning, I aim to contribute to impactful projects that make a difference. Top skills React.js • .NET Framework • SQL • JavaScript </t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>North South University | North South University</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>1yr •  | HTML5 Do's and Don'ts 📝 | - Use Semantic Elements: Utilize `&lt;header&gt;`, `&lt;footer&gt;`, `&lt;article&gt;`, `&lt;section&gt;`, and other semantic tags to structure your content meaningfully. This improves accessibility and SEO.</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>javascript-text-based</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>Skip to main content</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/jayedjb76</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>2025-11-19T19:02:39.817363</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
-        <is>
-          <t>React.js • .NET Framework • SQL • JavaScript • C#, Activity, Posts, Comments, Jayed Bin Harez reposted this, Mohd Muttalib, • rd+, w •, 𝗣𝗿𝗼𝗺𝗽𝘁 𝗘𝗻𝗴𝗶𝗻𝗲𝗲𝗿 𝘃𝘀. 𝗗𝗮𝘁𝗮 𝗦𝗰𝗶𝗲𝗻𝘁𝗶𝘀𝘁: 𝗔 𝗟𝗶𝗴𝗵𝘁𝗵𝗲𝗮𝗿𝘁𝗲𝗱 𝗖𝗼𝗺𝗽𝗮𝗿𝗶𝘀𝗼𝗻, ・How many r’s are in “Strawberry”?</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="inlineStr"/>
-      <c r="N6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>While studying for my Bachelor's in Software Engineering at Daffodil International University, I took an elective in machine learning and was instantly hooked. It was like I'd found a missing puzzle piece that brought all my interests together - math, statistics, programming and problem-solving. My first job was a Data Scientist under a professor of my university, where I was the youngest team member. But don't let that fool you - within my first year, I was leading a project. Numbers don't lie.</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Daffodil International University | Daffodil International University</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Machine Learning Researcher | Daffodil International University-DIU · Internship | Jan 2024 - Present · 1 yr 11 mos</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>javascript-text-based</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>Skip to main content</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/salim-sadman-362084301</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>2025-11-19T19:07:23.342108</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>… more, Activity, Salim Sadman commented on a post, mo, Its very helpful Vai, Congrats Md Raihan!, Wishing you the best, Show all</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr"/>
-      <c r="N7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="n">
+      <c r="AD2" s="3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/data/exports/profiles.xlsx
+++ b/data/exports/profiles.xlsx
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>6 (100.0%)</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>6 (100.0%)</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>6 (100.0%)</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>4 (66.7%)</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>43.3</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,17 +744,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>While studying for my Bachelor's in Software Engineering at Daffodil International University, I took an elective in machine learning and was instantly hooked. It was like I'd found a missing puzzle piece that brought all my interests together - math, statistics, programming and problem-solving. My first job was a Data Scientist under a professor of my university, where I was the youngest team member. But don't let that fool you - within my first year, I was leading a project. Numbers don't lie.</t>
+          <t>Currently pursuing a Bachelor of Science in Computer Software Engineering at Daffodil International University, with a specialization in artificial intelligence, machine learning, and computer vision. As a Machine Learning Developer at DIU, contributed to creating an image classification model using CNNs in TensorFlow, achieving 92% accuracy, and implementing object detection with OpenCV and YOLO for real-time applications, reducing processing time by 30%. Collaborated with peers to automate dat</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>December 3</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>salimsadman615@gmail.com</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>https://linkedin.com/in/salim-sadman-362084301</t>
+          <t>https://linkedin.com/in/nawaz127</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>https://linkedin.com/in/salim-sadman-362084301</t>
+          <t>https://linkedin.com/in/nawaz127</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>gmail</t>
+          <t>Sparktech</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="N2" s="3" t="inlineStr">
         <is>
-          <t>gmail.com</t>
+          <t>Bdjobs.com | sites.google.com</t>
         </is>
       </c>
       <c r="O2" s="3" t="inlineStr">
@@ -824,12 +824,12 @@
       </c>
       <c r="Q2" s="3" t="inlineStr">
         <is>
-          <t>Daffodil International University | Daffodil International University</t>
+          <t>Daffodil International University-DIU | Daffodil International University-DIU</t>
         </is>
       </c>
       <c r="R2" s="3" t="inlineStr">
         <is>
-          <t>Machine Learning Researcher | Daffodil International University-DIU · Internship | Jan 2024 - Present · 1 yr 11 mos</t>
+          <t>A big thanks to AWS Academy for offering such high-quality and practical learning experiences! | 🔗 Always open to new opportunities and collaborations in the fields of AI, Machine Learning, and Natural Language Processing. | #AWSAcademy #MachineLearning #NLP #ArtificialIntelligence #LifelongLearning #Tech #AWS #DataScience #StudentToPro</t>
         </is>
       </c>
       <c r="S2" s="3" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="T2" s="3" t="inlineStr">
         <is>
-          <t>Data Science | Machine Learning | Deep Learning | Data Analyst</t>
+          <t>Machine Learning | Deep Learning | Computer Vision | AI</t>
         </is>
       </c>
       <c r="U2" s="3" t="inlineStr"/>
@@ -850,35 +850,723 @@
       </c>
       <c r="W2" s="3" t="inlineStr">
         <is>
-          <t>Salim Sadman</t>
+          <t>Shah Nawaz</t>
         </is>
       </c>
       <c r="X2" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/salim-sadman-362084301</t>
+          <t>https://www.linkedin.com/in/nawaz127</t>
         </is>
       </c>
       <c r="Y2" s="3" t="inlineStr">
         <is>
-          <t>2025-11-27T15:40:22.804898</t>
-        </is>
-      </c>
-      <c r="Z2" s="3" t="inlineStr">
-        <is>
-          <t>… more, Activity, Salim Sadman commented on a post, mo, Its very helpful Vai, Congrats Md Raihan!, Wishing you the best, Show all</t>
-        </is>
-      </c>
+          <t>2025-11-30T10:34:52.994215</t>
+        </is>
+      </c>
+      <c r="Z2" s="3" t="inlineStr"/>
       <c r="AA2" s="3" t="n">
         <v>2</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="AC2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Message Nazmus Shakib · 1st Dhaka, Bangladesh · Contact info Still Learning Daffodil International University-DIU 430 connections Md. Mynul and Md Shefat are mutual connections Message Highlights Nazmus is a new connection “Hi Nazmus, it’s great to connect with you. Looking forward to staying in touch.” Say hello Activity 438 followers Posts Videos Images Nazmus Shakib • 1st 1mo • From concept to creation: my clock project showcases precision and creativity.. ⏱️ ⏱️ This is a modal window. No com</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Nov 27, 2025 | March 6</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>nazmusshakib6054@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/nazmus-shakib-8915a2389</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/nazmus-shakib-8915a2389</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>01521784336    (</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>gmail</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>gmail.com</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>Daffodil International University-DIU | Daffodil International University-DIU</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>Bsc Student  | Still Learning | Still Learning</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>javascript-text-based</t>
+        </is>
+      </c>
+      <c r="T3" s="3" t="inlineStr">
+        <is>
+          <t>B.Sc. in Computer Science and Engineering | Aspiring Devops Engineer | Passionate About Technology &amp; Innovation</t>
+        </is>
+      </c>
+      <c r="U3" s="3" t="inlineStr"/>
+      <c r="V3" s="3" t="inlineStr">
+        <is>
+          <t>Dhaka, Bangladesh</t>
+        </is>
+      </c>
+      <c r="W3" s="3" t="inlineStr">
+        <is>
+          <t>Nazmus Shakib</t>
+        </is>
+      </c>
+      <c r="X3" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ACoAAF-pSG0Bt6WxMol4agsGZA3VOzyeQxf4D3w</t>
+        </is>
+      </c>
+      <c r="Y3" s="3" t="inlineStr">
+        <is>
+          <t>2025-11-30T10:54:52.650562</t>
+        </is>
+      </c>
+      <c r="Z3" s="3" t="inlineStr"/>
+      <c r="AA3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Passionate about building great products</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>john@example.com</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>+1-555-0001</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>https://johnsmith.com</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>Stanford University</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>Product Manager | Senior Analyst</t>
+        </is>
+      </c>
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t>text-based</t>
+        </is>
+      </c>
+      <c r="T4" s="3" t="inlineStr">
+        <is>
+          <t>Product Manager at Tech Corp</t>
+        </is>
+      </c>
+      <c r="U4" s="3" t="inlineStr"/>
+      <c r="V4" s="3" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="W4" s="3" t="inlineStr">
+        <is>
+          <t>John Smith</t>
+        </is>
+      </c>
+      <c r="X4" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/johnsmith</t>
+        </is>
+      </c>
+      <c r="Y4" s="3" t="inlineStr"/>
+      <c r="Z4" s="3" t="inlineStr">
+        <is>
+          <t>Product Management, Data Analysis, Python, SQL</t>
+        </is>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Cloud infrastructure and DevOps enthusiast</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>sarah@example.com</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>https://github.com/sarahjohnson</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sarahjohnson</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>MIT</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>text-based</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Software Engineer at Cloud Systems</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/sarahjohnson</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr"/>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>AWS, Kubernetes, Python, Go</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Hello! Currently, I’m focused on solving urban–rural healthcare communication challenges through an AI-powered health tech ecosystem. The platform connects patients, doctors, and services in real time—bridging the gap between remote communities and medical support. I'm an entrepreneur and full-stack software developer with 10+ years of experience in building scalable web applications and API-driven platforms across industries like health tech, Real estate, Ad networks, food ordering, parcel deli</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Nov 27, 2025</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>khaled.rahman863@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/khaledur-rahman-b92570b9</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/khaledur-rahman-b92570b9</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>gmail</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>ChefOnline.co.uk | surejobbd.com | gmail.com</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t>* Bachelor of Business Administration (BBA) | * Bachelor of Business Administration (BBA)</t>
+        </is>
+      </c>
+      <c r="R6" s="3" t="inlineStr">
+        <is>
+          <t>… more | Activity | Comments</t>
+        </is>
+      </c>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>javascript-text-based</t>
+        </is>
+      </c>
+      <c r="T6" s="3" t="inlineStr">
+        <is>
+          <t>Co-Founder &amp; CEO of Eminence Software limited | Health Tech| Building Health Care Solutions to bridge the gap between urban and rural healthcare</t>
+        </is>
+      </c>
+      <c r="U6" s="3" t="inlineStr">
+        <is>
+          <t>English, Interests, Top Voices, Companies, Groups, Newsletters, Schools, Satya Nadella, Chairman and CEO at Microsoft, 11,729,621 followers, Jessica Alba, Founder of The Honest Company, 1,751,759 followers, Show all, Causes, People also viewed, Wahid Choudhury, · 2nd, Founder, CEO at Kaz Software, Nuzhat Islam, · 3rd, Senior SQA Engineer @ Bengal Mobile QA Solutions, Connect, Tarek Bari Chowdhury, Sujon Parsi, Executive at Eminence Software Limited, Mohammad Ruhul Amin, Explore premium profiles, Naved Amin Anik, Student at Jahangirnagar University, Ishtiaq Zaman Khan, Md Sifat, You might like, Pages for you, banglalink, Telecommunications, 377,207 followers, Jafrin &amp; 1 other connection follow this page, BRAC Bank PLC, Banking, 225,698 followers, Md. Insanur &amp; 1 other connection follow this page, About, Accessibility, Talent Solutions, Community Guidelines, Careers, Marketing Solutions, Privacy &amp; Terms, Ad Choices, Advertising, Sales Solutions, Mobile, Small Business, Safety Center, LinkedIn Corporation © 2025, Questions?, Visit our Help Center., Manage your account and privacy, Go to your Settings., Recommendation transparency, Learn more about Recommended Content., Select language, العربية (Arabic), বাংলা (Bangla), Čeština (Czech), Dansk (Danish), Deutsch (German), Ελληνικά (Greek), English (English), Español (Spanish), فارسی (Persian), Suomi (Finnish), Français (French), हिंदी (Hindi), Magyar (Hungarian), Bahasa Indonesia (Indonesian), Italiano (Italian), עברית (Hebrew), 日本語 (Japanese), 한국어 (Korean), मराठी (Marathi), Bahasa Malaysia (Malay), Nederlands (Dutch), Norsk (Norwegian), ਪੰਜਾਬੀ (Punjabi), Polski (Polish), Português (Portuguese), Română (Romanian), Русский (Russian), Svenska (Swedish), తెలుగు (Telugu), ภาษาไทย (Thai), Tagalog (Tagalog), Türkçe (Turkish), Українська (Ukrainian), Tiếng Việt (Vietnamese), 简体中文 (Chinese (Simplified)), 正體中文 (Chinese (Traditional))</t>
+        </is>
+      </c>
+      <c r="V6" s="3" t="inlineStr">
+        <is>
+          <t>“Hi Khaledur, it’s great to connect with you. Looking forward to staying in touch.”</t>
+        </is>
+      </c>
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>Khaledur Rahman</t>
+        </is>
+      </c>
+      <c r="X6" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/khaledur-rahman-b92570b9/</t>
+        </is>
+      </c>
+      <c r="Y6" s="3" t="inlineStr">
+        <is>
+          <t>2025-11-27T18:54:46.439072</t>
+        </is>
+      </c>
+      <c r="Z6" s="3" t="inlineStr">
+        <is>
+          <t>* Proficiency in MS Office tools: Word, Excel, PowerPoint, OneNote., * Understanding of the HealthTech sector is a strong advantage.</t>
+        </is>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>215</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>I’m a fresh graduate in Software Engineering from Daffodil International University with a growing passion for Software Quality Assurance and Test Automation. During my academic journey, I explored both manual and automation testing, where I learned how to design test cases, identify bugs, and ensure software reliability. I’ve completed hands-on projects using tools like Playwright, Postman, Newman, and Allure Report — focusing on web and API testing. I enjoy learning new technologies, solving r</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Nov 29, 2025</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>towfiq35-529@diu.edu.bd</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/towfiqbillah</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/towfiqbillah</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>NWC | diu</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>diu.edu.bd</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>Prokash Chandra Ghosh | Prokash Chandra Ghosh</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>🔧 Tech Stack: | JavaScript | Playwright</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
+          <t>javascript-text-based</t>
+        </is>
+      </c>
+      <c r="T7" s="3" t="inlineStr">
+        <is>
+          <t>Aspiring SQA Engineer | Manual &amp; Automation Testing | Playwright | Postman | API Testing | B.Sc. in Software Engineering (DIU)</t>
+        </is>
+      </c>
+      <c r="U7" s="3" t="inlineStr"/>
+      <c r="V7" s="3" t="inlineStr">
+        <is>
+          <t>Dhaka, Dhaka, Bangladesh</t>
+        </is>
+      </c>
+      <c r="W7" s="3" t="inlineStr">
+        <is>
+          <t>Md. Towfiq Billah</t>
+        </is>
+      </c>
+      <c r="X7" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/towfiqbillah/</t>
+        </is>
+      </c>
+      <c r="Y7" s="3" t="inlineStr">
+        <is>
+          <t>2025-11-30T11:12:06.284727</t>
+        </is>
+      </c>
+      <c r="Z7" s="3" t="inlineStr">
+        <is>
+          <t>… more, Activity, Posts, Comments, Videos, Images, Md. Towfiq Billah, • st, w •, Mistake I Made Early in QA Testing:</t>
+        </is>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
